--- a/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2017-18.xlsx
+++ b/player_d_dash/defense-dash-lt10_SeasonType_Playoffs_Season_2017-18.xlsx
@@ -909,17 +909,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Marcin Gortat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>54.1%</t>
+          <t>52.5%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -974,17 +974,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcin Gortat</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>52.5%</t>
+          <t>54.1%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-17.9</t>
         </is>
       </c>
     </row>
@@ -1689,42 +1689,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maurice Harkless</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>47.9%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>61.9</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1754,42 +1754,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Maurice Harkless</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>61.9</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>16.7</t>
         </is>
       </c>
     </row>
@@ -2534,42 +2534,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>56.4%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -2599,42 +2599,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>56.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -2794,42 +2794,42 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aron Baynes</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>46.0%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2839,17 +2839,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -2859,17 +2859,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>47.6%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -2924,12 +2924,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2944,22 +2944,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>47.6%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>10.4</t>
         </is>
       </c>
     </row>
@@ -2989,42 +2989,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Aron Baynes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>46.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -3834,17 +3834,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jordan Crawford</t>
+          <t>Jeff Teague</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3854,22 +3854,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>83.3%</t>
+          <t>54.3%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-39.2</t>
+          <t>12.8</t>
         </is>
       </c>
     </row>
@@ -3899,42 +3899,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Jordan Crawford</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-39.2</t>
         </is>
       </c>
     </row>
@@ -3964,22 +3964,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Jeff Teague</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>52.1%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -5264,42 +5264,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-27.5</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -5329,42 +5329,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>48.6%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11.4</t>
+          <t>-27.5</t>
         </is>
       </c>
     </row>
@@ -5459,42 +5459,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ed Davis</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>48.6%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>62.1</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>11.4</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Ed Davis</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>81.3</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>19.2</t>
         </is>
       </c>
     </row>
@@ -5784,22 +5784,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>44.3%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-23.5</t>
+          <t>-2.1</t>
         </is>
       </c>
     </row>
@@ -5849,22 +5849,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>44.3%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-23.5</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JJ Redick</t>
+          <t>Ty Lawson</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>58.1%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -6564,42 +6564,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gorgui Dieng</t>
+          <t>JJ Redick</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>51.4%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-15.1</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -6629,22 +6629,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Gorgui Dieng</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6659,12 +6659,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>51.4%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>65.9</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-10.4</t>
+          <t>-15.1</t>
         </is>
       </c>
     </row>
@@ -6694,17 +6694,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Marco Belinelli</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6714,17 +6714,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>-10.4</t>
         </is>
       </c>
     </row>
@@ -6759,42 +6759,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ty Lawson</t>
+          <t>Marco Belinelli</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>58.1%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -6889,42 +6889,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-10.9</t>
         </is>
       </c>
     </row>
@@ -6954,42 +6954,42 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-10.9</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -7344,22 +7344,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Taj Gibson</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7369,17 +7369,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>30.6%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -7389,17 +7389,17 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>57.4</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>-4.1</t>
         </is>
       </c>
     </row>
@@ -7409,22 +7409,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Taj Gibson</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7434,17 +7434,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>30.6%</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7454,17 +7454,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>57.4</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>7.3</t>
         </is>
       </c>
     </row>
@@ -7734,17 +7734,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Manu Ginobili</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -7764,12 +7764,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,12 +7779,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -7799,42 +7799,42 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>CJ Miles</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-13.6</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CJ Miles</t>
+          <t>Manu Ginobili</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-13.6</t>
         </is>
       </c>
     </row>
@@ -8644,17 +8644,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Raymond Felton</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -8664,22 +8664,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -8709,17 +8709,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Raymond Felton</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8729,22 +8729,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>58.1</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -8904,12 +8904,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8954,12 +8954,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>-16.3</t>
         </is>
       </c>
     </row>
@@ -8969,17 +8969,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8989,22 +8989,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>68.6%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -9034,17 +9034,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>68.6%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Amir Johnson</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9369,32 +9369,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>48.5%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-38.5</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -9424,27 +9424,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Amir Johnson</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>48.5%</t>
+          <t>48.3%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>12.8</t>
         </is>
       </c>
     </row>
@@ -9489,42 +9489,42 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Pau Gasol</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>25.6%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -9619,17 +9619,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -9639,42 +9639,42 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>-17.2</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pau Gasol</t>
+          <t>Josh Huestis</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>25.6%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -9749,17 +9749,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Josh Huestis</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -9774,17 +9774,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-38.5</t>
         </is>
       </c>
     </row>
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -9899,22 +9899,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>48.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>61.4</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>38.7</t>
         </is>
       </c>
     </row>
@@ -10919,12 +10919,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tomas Satoransky</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -10939,22 +10939,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>36.4%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-8.4</t>
         </is>
       </c>
     </row>
@@ -10984,12 +10984,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Tomas Satoransky</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -11004,22 +11004,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>-19.0</t>
         </is>
       </c>
     </row>
@@ -11114,22 +11114,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Lucas Nogueira</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11139,17 +11139,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-22.9</t>
+          <t>23.6</t>
         </is>
       </c>
     </row>
@@ -11179,12 +11179,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lucas Nogueira</t>
+          <t>Shabazz Muhammad</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11209,12 +11209,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>23.6</t>
+          <t>-49.9</t>
         </is>
       </c>
     </row>
@@ -11309,22 +11309,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Shabazz Muhammad</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -11334,17 +11334,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>23.8%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-49.9</t>
+          <t>-22.9</t>
         </is>
       </c>
     </row>
@@ -11439,22 +11439,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -11464,17 +11464,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>-9.4</t>
         </is>
       </c>
     </row>
@@ -11569,22 +11569,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11594,17 +11594,17 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>15.1</t>
         </is>
       </c>
     </row>
@@ -11764,42 +11764,42 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chinanu Onuaku</t>
+          <t>Matthew Dellavedova</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>21.4%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-54.2</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -11829,22 +11829,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Aaron Jackson</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -11859,12 +11859,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>19.6</t>
         </is>
       </c>
     </row>
@@ -11894,37 +11894,37 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Wade Baldwin IV</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -11944,12 +11944,12 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>76.5</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>41.3</t>
         </is>
       </c>
     </row>
@@ -12089,17 +12089,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Bryn Forbes</t>
+          <t>DeAndre Liggins</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12109,22 +12109,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>41.6</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Emeka Okafor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12174,22 +12174,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>27.3</t>
         </is>
       </c>
     </row>
@@ -12219,22 +12219,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Brandon Jennings</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12254,27 +12254,27 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>48.9</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>-34.6</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Brandon Jennings</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12314,12 +12314,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>76.5</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-34.6</t>
+          <t>23.5</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wade Baldwin IV</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -12359,27 +12359,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>65.8</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>34.2</t>
         </is>
       </c>
     </row>
@@ -12414,42 +12414,42 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Chinanu Onuaku</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-54.2</t>
         </is>
       </c>
     </row>
@@ -12479,42 +12479,42 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Matthew Dellavedova</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>21.4%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>51.1</t>
         </is>
       </c>
     </row>
@@ -12544,62 +12544,62 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Emeka Okafor</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Caleb Swanigan</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12619,12 +12619,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>65.8</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>42.9</t>
         </is>
       </c>
     </row>
@@ -12674,17 +12674,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DeAndre Liggins</t>
+          <t>Aaron Jackson</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -12694,42 +12694,42 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -12739,62 +12739,62 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Caleb Swanigan</t>
+          <t>Bryn Forbes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>13.8</t>
         </is>
       </c>
     </row>
@@ -12934,37 +12934,37 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Patrick McCaw</t>
+          <t>Tarik Black</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -12984,12 +12984,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>66.8</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>46.8</t>
         </is>
       </c>
     </row>
@@ -12999,27 +12999,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tarik Black</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -13029,32 +13029,32 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -13064,42 +13064,42 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Patrick McCaw</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>23.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>66.8</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>33.2</t>
         </is>
       </c>
     </row>
